--- a/datasssss.xlsx
+++ b/datasssss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ago19\Desktop\PROG ING INF\keccak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92347D-13CD-487B-A340-E732117B5BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C408376E-AF29-45B4-97A7-2FC8D289257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{803C938F-28BF-4DDA-A0A8-3AB120B1D670}"/>
+    <workbookView xWindow="7417" yWindow="0" windowWidth="15083" windowHeight="10755" xr2:uid="{803C938F-28BF-4DDA-A0A8-3AB120B1D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ARM IMPL</t>
   </si>
@@ -110,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -128,6 +129,1200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVX / SUPERCOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SHA3 512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SHA3 384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SHA3 256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SHAKE 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHAKE 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16069788797061513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15191545574636733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1740614334470989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16134453781512614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16142557651991618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-114A-4DCD-ACA9-561744D3F893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM / CROSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SHA3 512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SHA3 384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SHA3 256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SHAKE 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHAKE 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9970000590328318E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12725645813881092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16628997415181734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20160213618157541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26013705140194099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-114A-4DCD-ACA9-561744D3F893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUPERCOP ARM /CROSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SHA3 512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SHA3 384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SHA3 256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SHAKE 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHAKE 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.28422696512233214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2484956945741259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21755229582219837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20907201162731759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15334541858932094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-114A-4DCD-ACA9-561744D3F893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1731055471"/>
+        <c:axId val="1731053071"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$12:$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>SHA3 512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>SHA3 384</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>SHA3 256</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>SHAKE 256</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>SHAKE 128</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$14:$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-114A-4DCD-ACA9-561744D3F893}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$12:$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>SHA3 512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>SHA3 384</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>SHA3 256</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>SHAKE 256</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>SHAKE 128</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$16:$F$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-114A-4DCD-ACA9-561744D3F893}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1731055471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731053071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1731053071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731055471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106411</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146595</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35022475-74B5-7BB1-7DBB-D7353B014C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CBDFEF-7DEF-49A7-BCE5-D20D9580E31D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -585,6 +1780,23 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
@@ -627,7 +1839,7 @@
         <v>0.16628997415181734</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="C15:F15" si="1">E10/E2 - 1</f>
+        <f t="shared" ref="E15:F15" si="1">E10/E2 - 1</f>
         <v>0.20160213618157541</v>
       </c>
       <c r="F15" s="1">
@@ -660,8 +1872,12 @@
         <v>-0.15334541858932094</v>
       </c>
     </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M40" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>